--- a/Program/Other/URS會議審查紀錄/DbLayouts/L7-介接外部系統/Ias39LGD.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L7-介接外部系統/Ias39LGD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L7-介接外部系統\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L7-介接外部系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36ECD9E-B035-4A43-924D-A8B0E924518B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24750D43-6766-4D92-9BAF-DE97AAB3FB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="4" r:id="rId1"/>
@@ -276,23 +276,23 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Date</t>
+    <t>findDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>findType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Date &gt;= ,AND Date &lt;= ,AND Type &gt;= ,AND Type &lt;= </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>findDate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>findType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date,Type</t>
+    <t>Date DESC</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Date &gt;= ,AND Date &lt;= ,AND Type &gt;= ,AND Type &lt;= </t>
+    <t>Date DESC,Type ASC</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -901,17 +901,17 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.875" style="15" customWidth="1"/>
+    <col min="1" max="1" width="5.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.88671875" style="15" customWidth="1"/>
     <col min="4" max="4" width="15" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.44140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>10</v>
       </c>
@@ -926,7 +926,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="23"/>
       <c r="B2" s="24"/>
       <c r="C2" s="7" t="s">
@@ -939,7 +939,7 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>13</v>
       </c>
@@ -954,7 +954,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>3</v>
       </c>
@@ -966,7 +966,7 @@
       <c r="G4" s="9"/>
       <c r="K4" s="16"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>14</v>
       </c>
@@ -977,7 +977,7 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>15</v>
       </c>
@@ -988,7 +988,7 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>17</v>
       </c>
@@ -999,7 +999,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>1</v>
       </c>
@@ -1041,7 +1041,7 @@
       <c r="F9" s="21"/>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>2</v>
       </c>
@@ -1060,7 +1060,7 @@
       <c r="F10" s="21"/>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>3</v>
       </c>
@@ -1079,7 +1079,7 @@
       <c r="F11" s="21"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>4</v>
       </c>
@@ -1100,7 +1100,7 @@
       </c>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>5</v>
       </c>
@@ -1124,7 +1124,7 @@
       </c>
       <c r="H13" s="22"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>6</v>
       </c>
@@ -1143,7 +1143,7 @@
       <c r="F14" s="21"/>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>7</v>
       </c>
@@ -1162,7 +1162,7 @@
       <c r="F15" s="21"/>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>8</v>
       </c>
@@ -1181,7 +1181,7 @@
       <c r="F16" s="21"/>
       <c r="G16" s="12"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>9</v>
       </c>
@@ -1200,7 +1200,7 @@
       <c r="F17" s="21"/>
       <c r="G17" s="12"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="14"/>
@@ -1209,27 +1209,27 @@
       <c r="F18" s="13"/>
       <c r="G18" s="12"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="12"/>
       <c r="G19" s="12"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="12"/>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="12"/>
       <c r="G21" s="12"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="12"/>
       <c r="G22" s="12"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="12"/>
       <c r="G23" s="12"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="14"/>
@@ -1238,7 +1238,7 @@
       <c r="F24" s="13"/>
       <c r="G24" s="12"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="14"/>
@@ -1247,7 +1247,7 @@
       <c r="F25" s="13"/>
       <c r="G25" s="12"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="14"/>
@@ -1256,82 +1256,82 @@
       <c r="F26" s="13"/>
       <c r="G26" s="12"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="12"/>
       <c r="F27" s="13"/>
       <c r="G27" s="12"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="12"/>
       <c r="F28" s="13"/>
       <c r="G28" s="12"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="12"/>
       <c r="F29" s="13"/>
       <c r="G29" s="12"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="12"/>
       <c r="F30" s="13"/>
       <c r="G30" s="12"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="12"/>
       <c r="F31" s="13"/>
       <c r="G31" s="12"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="12"/>
       <c r="F32" s="13"/>
       <c r="G32" s="12"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="12"/>
       <c r="F33" s="13"/>
       <c r="G33" s="12"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="12"/>
       <c r="F34" s="13"/>
       <c r="G34" s="12"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="12"/>
       <c r="F35" s="13"/>
       <c r="G35" s="12"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="12"/>
       <c r="F36" s="13"/>
       <c r="G36" s="12"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="12"/>
       <c r="F37" s="13"/>
       <c r="G37" s="12"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="12"/>
       <c r="F38" s="13"/>
       <c r="G38" s="12"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="12"/>
       <c r="F39" s="13"/>
       <c r="G39" s="12"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="12"/>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="12"/>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="14"/>
@@ -1340,7 +1340,7 @@
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="14"/>
@@ -1349,7 +1349,7 @@
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="14"/>
@@ -1358,7 +1358,7 @@
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="14"/>
@@ -1367,7 +1367,7 @@
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
       <c r="C46" s="14"/>
@@ -1376,7 +1376,7 @@
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="14"/>
@@ -1385,7 +1385,7 @@
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="14"/>
@@ -1394,7 +1394,7 @@
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="14"/>
@@ -1403,7 +1403,7 @@
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="14"/>
@@ -1412,7 +1412,7 @@
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="14"/>
@@ -1421,7 +1421,7 @@
       <c r="F51" s="12"/>
       <c r="G51" s="12"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="14"/>
@@ -1430,7 +1430,7 @@
       <c r="F52" s="12"/>
       <c r="G52" s="12"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="12"/>
       <c r="B53" s="12"/>
       <c r="C53" s="14"/>
@@ -1439,7 +1439,7 @@
       <c r="F53" s="12"/>
       <c r="G53" s="12"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="14"/>
@@ -1448,7 +1448,7 @@
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="12"/>
       <c r="B55" s="12"/>
       <c r="C55" s="14"/>
@@ -1457,7 +1457,7 @@
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="12"/>
       <c r="B56" s="12"/>
       <c r="C56" s="14"/>
@@ -1466,7 +1466,7 @@
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="12"/>
       <c r="B57" s="12"/>
       <c r="C57" s="14"/>
@@ -1475,7 +1475,7 @@
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="12"/>
       <c r="B58" s="12"/>
       <c r="C58" s="14"/>
@@ -1484,7 +1484,7 @@
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="12"/>
       <c r="B59" s="12"/>
       <c r="C59" s="14"/>
@@ -1493,7 +1493,7 @@
       <c r="F59" s="12"/>
       <c r="G59" s="12"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="12"/>
       <c r="B60" s="12"/>
       <c r="C60" s="14"/>
@@ -1502,7 +1502,7 @@
       <c r="F60" s="12"/>
       <c r="G60" s="12"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="12"/>
       <c r="B61" s="12"/>
       <c r="C61" s="14"/>
@@ -1511,7 +1511,7 @@
       <c r="F61" s="12"/>
       <c r="G61" s="12"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="12"/>
       <c r="B62" s="12"/>
       <c r="C62" s="14"/>
@@ -1520,7 +1520,7 @@
       <c r="F62" s="12"/>
       <c r="G62" s="12"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="12"/>
       <c r="B63" s="12"/>
       <c r="C63" s="14"/>
@@ -1529,7 +1529,7 @@
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="12"/>
       <c r="B64" s="12"/>
       <c r="C64" s="14"/>
@@ -1538,7 +1538,7 @@
       <c r="F64" s="12"/>
       <c r="G64" s="12"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="12"/>
       <c r="B65" s="12"/>
       <c r="C65" s="14"/>
@@ -1547,79 +1547,79 @@
       <c r="F65" s="12"/>
       <c r="G65" s="12"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C66" s="14"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C67" s="14"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C68" s="14"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C69" s="14"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C70" s="14"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C71" s="14"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C72" s="14"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C73" s="14"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C74" s="14"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C75" s="14"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C76" s="14"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B77" s="12"/>
       <c r="C77" s="14"/>
       <c r="D77" s="12"/>
       <c r="E77" s="12"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C78" s="14"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C79" s="14"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C80" s="14"/>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C81" s="14"/>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C82" s="14"/>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C83" s="14"/>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C84" s="14"/>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C85" s="14"/>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C86" s="14"/>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C87" s="14"/>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C88" s="14"/>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C100" s="14"/>
     </row>
   </sheetData>
@@ -1644,18 +1644,18 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.44140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1666,26 +1666,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L7-介接外部系統/Ias39LGD.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L7-介接外部系統/Ias39LGD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L7-介接外部系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24750D43-6766-4D92-9BAF-DE97AAB3FB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F15C224-FB6B-44B2-8E48-2C2017C72EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="4" r:id="rId1"/>
@@ -897,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1074,7 +1074,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="21">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="12"/>
@@ -1642,7 +1642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L7-介接外部系統/Ias39LGD.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L7-介接外部系統/Ias39LGD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L7-介接外部系統\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L7-介接外部系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F15C224-FB6B-44B2-8E48-2C2017C72EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71448EED-67A4-4DCE-B7E4-80A04D156D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -216,10 +216,6 @@
     <t>啟用記號</t>
   </si>
   <si>
-    <t>Y:啟用 , N:未啟用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">類別          </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -294,6 +290,11 @@
   <si>
     <t>Date DESC,Type ASC</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y:啟用
+N:未啟用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -898,7 +899,7 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -917,10 +918,10 @@
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>46</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>47</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -945,7 +946,7 @@
       </c>
       <c r="B3" s="24"/>
       <c r="C3" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="20" t="s">
         <v>27</v>
@@ -1027,13 +1028,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="21">
         <v>8</v>
@@ -1046,10 +1047,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>30</v>
@@ -1065,13 +1066,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" s="21">
         <v>30</v>
@@ -1084,10 +1085,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>26</v>
@@ -1100,7 +1101,7 @@
       </c>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>5</v>
       </c>
@@ -1120,7 +1121,7 @@
         <v>31</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="H13" s="22"/>
     </row>
@@ -1668,24 +1669,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L7-介接外部系統/Ias39LGD.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L7-介接外部系統/Ias39LGD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L7-介接外部系統\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L7-介接外部系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71448EED-67A4-4DCE-B7E4-80A04D156D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E515037-0A21-49B6-AC16-3C4CFCD78007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -292,8 +292,25 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Y:啟用
-N:未啟用</t>
+    <r>
+      <t xml:space="preserve">Y:啟用
+N:未啟用
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>已不使用</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已不使用,改下拉式選單</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -301,7 +318,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -408,6 +425,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -481,7 +505,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -556,6 +580,9 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -899,7 +926,7 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1078,7 +1105,9 @@
         <v>30</v>
       </c>
       <c r="F11" s="21"/>
-      <c r="G11" s="12"/>
+      <c r="G11" s="25" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
@@ -1101,7 +1130,7 @@
       </c>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="1:11" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>5</v>
       </c>
